--- a/extra/training program.xlsx
+++ b/extra/training program.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomma\Documents\uni\extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500B7AC9-A3A2-4135-8DD3-D72D07C63B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA727010-AEC9-43D9-AF7D-ADDD6B136AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{1815E3BB-48B3-4D23-BBC1-C9CC3001C800}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="62">
   <si>
     <t>exercise</t>
   </si>
@@ -47,12 +47,6 @@
     <t>muscle group</t>
   </si>
   <si>
-    <t>upper</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
     <t>bench press</t>
   </si>
   <si>
@@ -98,9 +92,6 @@
     <t>upper/lower</t>
   </si>
   <si>
-    <t>ppl</t>
-  </si>
-  <si>
     <t>u</t>
   </si>
   <si>
@@ -128,14 +119,116 @@
     <t>min</t>
   </si>
   <si>
-    <t>min for 45</t>
+    <t>min for longest workout</t>
+  </si>
+  <si>
+    <t>ex week 1</t>
+  </si>
+  <si>
+    <t>Monday/ upper</t>
+  </si>
+  <si>
+    <t>cable crossovers</t>
+  </si>
+  <si>
+    <t>lat pulldowns</t>
+  </si>
+  <si>
+    <t>rows</t>
+  </si>
+  <si>
+    <t>cable lateral raises</t>
+  </si>
+  <si>
+    <t>dumbbell lateral raise</t>
+  </si>
+  <si>
+    <t>face pulls</t>
+  </si>
+  <si>
+    <t>biceps curls</t>
+  </si>
+  <si>
+    <t>triceps extension cable</t>
+  </si>
+  <si>
+    <t>triceps pushdowns</t>
+  </si>
+  <si>
+    <t>total sets</t>
+  </si>
+  <si>
+    <t>Twesday/ lower</t>
+  </si>
+  <si>
+    <t>barbell squats</t>
+  </si>
+  <si>
+    <t>leg extension</t>
+  </si>
+  <si>
+    <t>sissy squats</t>
+  </si>
+  <si>
+    <t>romanian deadlift</t>
+  </si>
+  <si>
+    <t>leg curl</t>
+  </si>
+  <si>
+    <t>crunches</t>
+  </si>
+  <si>
+    <t>leg raises</t>
+  </si>
+  <si>
+    <t>calf raises</t>
+  </si>
+  <si>
+    <t>forearm flexion</t>
+  </si>
+  <si>
+    <t>forearm extension</t>
+  </si>
+  <si>
+    <t>neck flexion</t>
+  </si>
+  <si>
+    <t>next extension</t>
+  </si>
+  <si>
+    <t>shrugs</t>
+  </si>
+  <si>
+    <t>Thursday/ upper</t>
+  </si>
+  <si>
+    <t>Friday/ lower</t>
+  </si>
+  <si>
+    <t>Wednesday/ cardio</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>cyclette</t>
+  </si>
+  <si>
+    <t>tapis roulant (light run)</t>
+  </si>
+  <si>
+    <t>stretching</t>
+  </si>
+  <si>
+    <t>total time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,16 +236,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -160,15 +267,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,267 +649,829 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B7B636-1598-47AB-9C62-A0A9D016D7C1}">
-  <dimension ref="A2:O21"/>
+  <dimension ref="A2:X24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="3" max="4" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" customWidth="1"/>
-    <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="21.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="20.77734375" customWidth="1"/>
+    <col min="11" max="11" width="19.88671875" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" customWidth="1"/>
+    <col min="17" max="17" width="19.44140625" customWidth="1"/>
+    <col min="20" max="20" width="20.21875" customWidth="1"/>
+    <col min="23" max="23" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3">
+        <v>24</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="3">
+        <v>18</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="3">
+        <v>10</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="3">
+        <v>8</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="X6" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="3">
+        <v>18</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="L7" s="2">
+        <v>5</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="R7" s="2">
+        <v>30</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U7" s="2">
+        <v>5</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X7" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="3">
+        <v>8</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="2">
         <v>4</v>
       </c>
-      <c r="K2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="N8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O8" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R8" s="2">
+        <v>10</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U8" s="2">
+        <v>4</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X8" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3">
+        <v>14</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="3">
+        <v>14</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="2">
+        <v>5</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O9" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="R9" s="2">
+        <v>10</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U9" s="2">
+        <v>5</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X9" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="3">
+        <v>4</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="2">
+        <v>4</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O10" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="T10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U10" s="2">
+        <v>4</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="X10" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="3">
+        <v>20</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" s="2">
+        <v>3</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O11" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="T11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U11" s="2">
+        <v>3</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="X11" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3">
+        <v>20</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="F12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="3">
+        <v>20</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="2">
+        <v>5</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O12" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="T12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U12" s="2">
+        <v>5</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X12" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="3">
+        <v>14</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="3">
+        <v>14</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" s="2">
+        <v>2</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O13" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="T13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U13" s="2">
+        <v>2</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="X13" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="3">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N2" t="s">
+      <c r="F14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="3">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" s="2">
+        <v>5</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O14" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="T14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U14" s="2">
+        <v>5</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="X14" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="H15" s="1"/>
+      <c r="K15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L15" s="2">
+        <v>4</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O15" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="T15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U15" s="2">
+        <v>4</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X15" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="K16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L16" s="2">
+        <v>3</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O16" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="T16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U16" s="2">
+        <v>3</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="X16" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <f>SUM(B3:B14)</f>
+        <v>164</v>
+      </c>
+      <c r="F17" s="2">
+        <f>SUM(G3:G14)</f>
+        <v>146</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="N17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O17" s="2">
+        <v>1</v>
+      </c>
+      <c r="W17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="X17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="H18" s="1"/>
+      <c r="N18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O18" s="2">
+        <v>1</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="X18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B19" s="2">
+        <f>SUMIF(C3:C14,"u",B3:B14)</f>
+        <v>90</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="2">
+        <f>B19/2</f>
+        <v>45</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="2">
+        <f>SUMIF(H3:H14,"u",G3:G14)</f>
+        <v>80</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="2">
+        <f>G19/2</f>
+        <v>40</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O19" s="2">
+        <v>2</v>
+      </c>
+      <c r="W19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X19" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="2">
+        <f>SUMIF(C3:C14,"l",B3:B14)</f>
+        <v>74</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="2">
+        <f>B20/2</f>
+        <v>37</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="2">
+        <f>SUMIF(H3:H14,"l",G3:G14)</f>
+        <v>66</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="2">
+        <f>G20/2</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="2">
+        <f>B19-B20</f>
+        <v>16</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="2">
+        <f>G19-G20</f>
+        <v>14</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="K21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L21" s="2">
+        <f>SUM(L7:L16)</f>
+        <v>40</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O21" s="2">
+        <f>SUM(O7:O19)</f>
+        <v>33</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="R21" s="2">
+        <f>SUM(R7:R19)</f>
+        <v>50</v>
+      </c>
+      <c r="T21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="U21" s="2">
+        <f>SUM(U7:U16)</f>
+        <v>40</v>
+      </c>
+      <c r="W21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="X21" s="2">
+        <f>SUM(X7:X19)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="B23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3">
-        <v>12</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="K4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L4">
-        <v>24</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="K5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5">
-        <v>12</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="K6" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6">
-        <v>8</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="K7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7">
-        <v>20</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="K8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8">
-        <v>8</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="K9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9">
-        <v>14</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O9">
-        <f>SUM(L3:L14)</f>
-        <v>164</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="K10" t="s">
-        <v>13</v>
-      </c>
-      <c r="L10">
-        <v>6</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="K11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11">
-        <v>20</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="K12" t="s">
-        <v>15</v>
-      </c>
-      <c r="L12">
-        <v>20</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="K13" t="s">
-        <v>16</v>
-      </c>
-      <c r="L13">
-        <v>14</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="K14" t="s">
-        <v>17</v>
-      </c>
-      <c r="L14">
-        <v>6</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="K16" t="s">
-        <v>23</v>
-      </c>
-      <c r="L16">
-        <f>SUMIF(M3:M14,"u",L3:L14)</f>
-        <v>90</v>
-      </c>
-      <c r="M16" s="1" t="s">
+      <c r="G23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="N16">
-        <f>L16/2</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L17">
-        <f>SUMIF(M3:M14,"l",L3:L14)</f>
-        <v>74</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N17">
-        <f>L17/2</f>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K18" t="s">
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
         <v>26</v>
       </c>
-      <c r="L18">
-        <f>L16-L17</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K20" t="s">
-        <v>1</v>
-      </c>
-      <c r="L20" t="s">
-        <v>29</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K21">
+      <c r="B24" s="2">
+        <v>80</v>
+      </c>
+      <c r="C24" s="3">
+        <f>(B24/A24)*D19</f>
+        <v>138.46153846153848</v>
+      </c>
+      <c r="F24" s="2">
         <v>26</v>
       </c>
-      <c r="L21">
+      <c r="G24" s="2">
         <v>80</v>
       </c>
-      <c r="M21" s="1">
-        <f>(L21/K21)*N16</f>
-        <v>138.46153846153848</v>
+      <c r="H24" s="3">
+        <f>(G24/F24)*I19</f>
+        <v>123.07692307692308</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>